--- a/jpcore-r4/feature/改行テスト/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/feature/改行テスト/StructureDefinition-jp-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2838" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2838" uniqueCount="541">
   <si>
     <t>Property</t>
   </si>
@@ -150,10 +150,6 @@
   </si>
   <si>
     <t>ケアまたはその他の健康関連サービスを受けている個人または動物に関する人口統計およびその他の管理情報。</t>
-  </si>
-  <si>
-    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -2246,13 +2242,13 @@
         <v>41</v>
       </c>
       <c r="AJ1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="AL1" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="AL1" t="s" s="2">
-        <v>47</v>
       </c>
       <c r="AM1" t="s" s="2">
         <v>41</v>
@@ -2266,10 +2262,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2280,28 +2276,28 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s" s="2">
+      <c r="K2" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="N2" t="s" s="2">
         <v>53</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>54</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2351,13 +2347,13 @@
         <v>41</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>41</v>
@@ -2383,10 +2379,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2397,25 +2393,25 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K3" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>58</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>59</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2466,19 +2462,19 @@
         <v>41</v>
       </c>
       <c r="AF3" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>41</v>
@@ -2498,10 +2494,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2512,28 +2508,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="J4" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="N4" t="s" s="2">
         <v>65</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>66</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2583,19 +2579,19 @@
         <v>41</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>41</v>
@@ -2615,10 +2611,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2629,7 +2625,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>41</v>
@@ -2641,16 +2637,16 @@
         <v>41</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2676,43 +2672,43 @@
         <v>41</v>
       </c>
       <c r="X5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y5" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="Y5" t="s" s="2">
+      <c r="Z5" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Z5" t="s" s="2">
+      <c r="AA5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF5" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AA5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>41</v>
@@ -2732,21 +2728,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>41</v>
@@ -2758,16 +2754,16 @@
         <v>41</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2817,22 +2813,22 @@
         <v>41</v>
       </c>
       <c r="AF6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK6" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>41</v>
@@ -2849,14 +2845,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2875,16 +2871,16 @@
         <v>41</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2934,7 +2930,7 @@
         <v>41</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -2949,7 +2945,7 @@
         <v>41</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>41</v>
@@ -2966,10 +2962,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2992,13 +2988,13 @@
         <v>41</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -3037,17 +3033,17 @@
         <v>41</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE8" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -3059,7 +3055,7 @@
         <v>41</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>41</v>
@@ -3079,13 +3075,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="C9" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>41</v>
@@ -3107,16 +3103,16 @@
         <v>41</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3166,7 +3162,7 @@
         <v>41</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -3175,10 +3171,10 @@
         <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>41</v>
@@ -3198,13 +3194,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="C10" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>41</v>
@@ -3214,7 +3210,7 @@
         <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>41</v>
@@ -3226,16 +3222,16 @@
         <v>41</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3285,7 +3281,7 @@
         <v>41</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -3294,10 +3290,10 @@
         <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>41</v>
@@ -3317,13 +3313,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="C11" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>41</v>
@@ -3345,16 +3341,16 @@
         <v>41</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3404,7 +3400,7 @@
         <v>41</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -3413,10 +3409,10 @@
         <v>40</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>41</v>
@@ -3436,14 +3432,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3456,25 +3452,25 @@
         <v>41</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>41</v>
@@ -3523,7 +3519,7 @@
         <v>41</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
@@ -3535,10 +3531,10 @@
         <v>41</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>41</v>
@@ -3555,10 +3551,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3566,7 +3562,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>40</v>
@@ -3578,22 +3574,22 @@
         <v>41</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>41</v>
@@ -3642,7 +3638,7 @@
         <v>41</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
@@ -3654,19 +3650,19 @@
         <v>41</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>41</v>
@@ -3674,10 +3670,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3688,7 +3684,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>41</v>
@@ -3700,13 +3696,13 @@
         <v>41</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3757,22 +3753,22 @@
         <v>41</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>41</v>
@@ -3789,14 +3785,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3815,16 +3811,16 @@
         <v>41</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="M15" t="s" s="2">
-        <v>145</v>
-      </c>
       <c r="N15" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3862,19 +3858,19 @@
         <v>41</v>
       </c>
       <c r="AB15" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE15" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AC15" t="s" s="2">
+      <c r="AF15" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -3886,10 +3882,10 @@
         <v>41</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>41</v>
@@ -3906,10 +3902,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3920,31 +3916,31 @@
         <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>41</v>
@@ -3969,47 +3965,47 @@
         <v>41</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="Z16" t="s" s="2">
+      <c r="AA16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AA16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF16" t="s" s="2">
+      <c r="AG16" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AG16" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>157</v>
-      </c>
       <c r="AL16" t="s" s="2">
         <v>41</v>
       </c>
@@ -4017,7 +4013,7 @@
         <v>41</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>41</v>
@@ -4025,10 +4021,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4039,31 +4035,31 @@
         <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J17" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K17" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>41</v>
@@ -4088,55 +4084,55 @@
         <v>41</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="Z17" t="s" s="2">
+      <c r="AA17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AA17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF17" t="s" s="2">
+      <c r="AG17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>41</v>
@@ -4144,10 +4140,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4158,31 +4154,31 @@
         <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J18" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K18" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>41</v>
@@ -4195,67 +4191,67 @@
         <v>41</v>
       </c>
       <c r="T18" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="U18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF18" t="s" s="2">
+      <c r="AG18" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AG18" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>41</v>
@@ -4263,10 +4259,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4274,31 +4270,31 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K19" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4348,31 +4344,31 @@
         <v>41</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>41</v>
@@ -4380,10 +4376,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4394,28 +4390,28 @@
         <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K20" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4465,31 +4461,31 @@
         <v>41</v>
       </c>
       <c r="AF20" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AG20" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>41</v>
@@ -4497,10 +4493,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4511,28 +4507,28 @@
         <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K21" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4582,31 +4578,31 @@
         <v>41</v>
       </c>
       <c r="AF21" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AG21" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>41</v>
@@ -4614,10 +4610,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4628,103 +4624,103 @@
         <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="J22" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="O22" t="s" s="2">
+      <c r="P22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q22" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="P22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q22" t="s" s="2">
+      <c r="R22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="R22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>41</v>
@@ -4735,10 +4731,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4761,19 +4757,19 @@
         <v>41</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>41</v>
@@ -4822,7 +4818,7 @@
         <v>41</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
@@ -4831,22 +4827,22 @@
         <v>40</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>41</v>
@@ -4854,10 +4850,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4877,22 +4873,22 @@
         <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>41</v>
@@ -4941,7 +4937,7 @@
         <v>41</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
@@ -4953,19 +4949,19 @@
         <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>41</v>
@@ -4973,10 +4969,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4987,7 +4983,7 @@
         <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>41</v>
@@ -4999,13 +4995,13 @@
         <v>41</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5056,22 +5052,22 @@
         <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>41</v>
@@ -5088,14 +5084,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5114,16 +5110,16 @@
         <v>41</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5161,19 +5157,19 @@
         <v>41</v>
       </c>
       <c r="AB26" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AC26" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AF26" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
@@ -5185,10 +5181,10 @@
         <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>41</v>
@@ -5205,10 +5201,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5219,28 +5215,28 @@
         <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J27" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J27" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K27" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5266,55 +5262,55 @@
         <v>41</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y27" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="Z27" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="Z27" t="s" s="2">
+      <c r="AA27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AA27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF27" t="s" s="2">
+      <c r="AG27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI27" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="AG27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI27" t="s" s="2">
+      <c r="AJ27" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AJ27" t="s" s="2">
+      <c r="AK27" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>41</v>
@@ -5322,10 +5318,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5336,31 +5332,31 @@
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J28" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J28" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K28" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>41</v>
@@ -5409,31 +5405,31 @@
         <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AG28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>41</v>
@@ -5441,10 +5437,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5455,31 +5451,31 @@
         <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="J29" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>41</v>
@@ -5504,55 +5500,55 @@
         <v>41</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y29" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="Z29" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="Z29" t="s" s="2">
+      <c r="AA29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AA29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF29" t="s" s="2">
+      <c r="AG29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AG29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>41</v>
@@ -5560,10 +5556,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5574,28 +5570,28 @@
         <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J30" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K30" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5645,22 +5641,22 @@
         <v>41</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>41</v>
@@ -5669,7 +5665,7 @@
         <v>41</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>41</v>
@@ -5677,10 +5673,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5691,28 +5687,28 @@
         <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J31" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K31" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5762,23 +5758,23 @@
         <v>41</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AG31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>276</v>
-      </c>
       <c r="AL31" t="s" s="2">
         <v>41</v>
       </c>
@@ -5786,7 +5782,7 @@
         <v>41</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>41</v>
@@ -5794,10 +5790,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5808,31 +5804,31 @@
         <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J32" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K32" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>41</v>
@@ -5857,55 +5853,55 @@
         <v>41</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y32" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="Z32" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="Z32" t="s" s="2">
+      <c r="AA32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AA32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>41</v>
@@ -5913,10 +5909,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5927,31 +5923,31 @@
         <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J33" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K33" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>41</v>
@@ -6000,42 +5996,42 @@
         <v>41</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AM33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>295</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6046,31 +6042,31 @@
         <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="J34" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>41</v>
@@ -6119,31 +6115,31 @@
         <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>41</v>
@@ -6151,10 +6147,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6174,22 +6170,22 @@
         <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>41</v>
@@ -6238,7 +6234,7 @@
         <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -6250,19 +6246,19 @@
         <v>41</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>41</v>
@@ -6270,10 +6266,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6284,7 +6280,7 @@
         <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>41</v>
@@ -6296,13 +6292,13 @@
         <v>41</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6353,22 +6349,22 @@
         <v>41</v>
       </c>
       <c r="AF36" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>41</v>
@@ -6385,14 +6381,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6411,16 +6407,16 @@
         <v>41</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="M37" t="s" s="2">
-        <v>145</v>
-      </c>
       <c r="N37" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6458,19 +6454,19 @@
         <v>41</v>
       </c>
       <c r="AB37" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE37" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AC37" t="s" s="2">
+      <c r="AF37" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -6482,10 +6478,10 @@
         <v>41</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>41</v>
@@ -6502,10 +6498,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6516,31 +6512,31 @@
         <v>39</v>
       </c>
       <c r="G38" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="J38" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>41</v>
@@ -6565,55 +6561,55 @@
         <v>41</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y38" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="Z38" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="Z38" t="s" s="2">
+      <c r="AA38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF38" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AA38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF38" t="s" s="2">
+      <c r="AG38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>41</v>
@@ -6621,10 +6617,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6635,28 +6631,28 @@
         <v>39</v>
       </c>
       <c r="G39" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J39" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K39" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6682,55 +6678,55 @@
         <v>41</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y39" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="Z39" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="Z39" t="s" s="2">
+      <c r="AA39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF39" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AA39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF39" t="s" s="2">
+      <c r="AG39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>41</v>
@@ -6738,10 +6734,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6752,31 +6748,31 @@
         <v>39</v>
       </c>
       <c r="G40" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J40" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K40" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="N40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>41</v>
@@ -6789,67 +6785,67 @@
         <v>41</v>
       </c>
       <c r="T40" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF40" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="U40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF40" t="s" s="2">
+      <c r="AG40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AG40" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AL40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>41</v>
@@ -6857,10 +6853,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6880,19 +6876,19 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6906,43 +6902,43 @@
         <v>41</v>
       </c>
       <c r="T41" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF41" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -6954,19 +6950,19 @@
         <v>41</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>41</v>
@@ -6974,42 +6970,42 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G42" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J42" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K42" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7023,67 +7019,67 @@
         <v>41</v>
       </c>
       <c r="T42" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF42" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="U42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF42" t="s" s="2">
+      <c r="AG42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK42" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AG42" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK42" t="s" s="2">
+      <c r="AL42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>41</v>
@@ -7091,42 +7087,42 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G43" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J43" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K43" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7176,31 +7172,31 @@
         <v>41</v>
       </c>
       <c r="AF43" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="AG43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK43" t="s" s="2">
+      <c r="AL43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>41</v>
@@ -7208,42 +7204,42 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G44" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J44" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K44" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7257,67 +7253,67 @@
         <v>41</v>
       </c>
       <c r="T44" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF44" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="U44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF44" t="s" s="2">
+      <c r="AG44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AG44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK44" t="s" s="2">
+      <c r="AL44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>41</v>
@@ -7325,42 +7321,42 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G45" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J45" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K45" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7374,67 +7370,67 @@
         <v>41</v>
       </c>
       <c r="T45" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF45" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="U45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF45" t="s" s="2">
+      <c r="AG45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="AG45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK45" t="s" s="2">
+      <c r="AL45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>41</v>
@@ -7442,10 +7438,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7456,28 +7452,28 @@
         <v>39</v>
       </c>
       <c r="G46" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J46" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K46" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7527,31 +7523,31 @@
         <v>41</v>
       </c>
       <c r="AF46" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="AG46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK46" t="s" s="2">
+      <c r="AL46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>41</v>
@@ -7559,10 +7555,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7573,31 +7569,31 @@
         <v>39</v>
       </c>
       <c r="G47" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J47" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K47" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="M47" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>41</v>
@@ -7646,31 +7642,31 @@
         <v>41</v>
       </c>
       <c r="AF47" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>41</v>
@@ -7678,10 +7674,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7692,7 +7688,7 @@
         <v>39</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>41</v>
@@ -7704,19 +7700,19 @@
         <v>41</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="N48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>41</v>
@@ -7741,55 +7737,55 @@
         <v>41</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Y48" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="Z48" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="Z48" t="s" s="2">
+      <c r="AA48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="AA48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AL48" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>41</v>
@@ -7797,10 +7793,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7811,7 +7807,7 @@
         <v>39</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>41</v>
@@ -7823,19 +7819,19 @@
         <v>41</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="N49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>41</v>
@@ -7884,31 +7880,31 @@
         <v>41</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>41</v>
@@ -7916,10 +7912,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7942,19 +7938,19 @@
         <v>41</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>41</v>
@@ -8003,7 +7999,7 @@
         <v>41</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -8015,19 +8011,19 @@
         <v>41</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>41</v>
@@ -8035,10 +8031,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8061,19 +8057,19 @@
         <v>41</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>41</v>
@@ -8122,7 +8118,7 @@
         <v>41</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -8134,13 +8130,13 @@
         <v>41</v>
       </c>
       <c r="AJ51" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="AK51" t="s" s="2">
-        <v>430</v>
-      </c>
       <c r="AL51" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>41</v>
@@ -8154,10 +8150,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8168,7 +8164,7 @@
         <v>39</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>41</v>
@@ -8180,13 +8176,13 @@
         <v>41</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8237,22 +8233,22 @@
         <v>41</v>
       </c>
       <c r="AF52" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK52" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>41</v>
@@ -8269,14 +8265,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8295,16 +8291,16 @@
         <v>41</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="M53" t="s" s="2">
-        <v>145</v>
-      </c>
       <c r="N53" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8354,7 +8350,7 @@
         <v>41</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -8366,10 +8362,10 @@
         <v>41</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>41</v>
@@ -8386,14 +8382,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8406,25 +8402,25 @@
         <v>41</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="M54" t="s" s="2">
-        <v>436</v>
-      </c>
       <c r="N54" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="O54" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>41</v>
@@ -8473,7 +8469,7 @@
         <v>41</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -8485,10 +8481,10 @@
         <v>41</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>41</v>
@@ -8505,10 +8501,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8531,19 +8527,19 @@
         <v>41</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="N55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>41</v>
@@ -8568,14 +8564,14 @@
         <v>41</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Y55" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="Z55" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="Z55" t="s" s="2">
-        <v>444</v>
-      </c>
       <c r="AA55" t="s" s="2">
         <v>41</v>
       </c>
@@ -8592,7 +8588,7 @@
         <v>41</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
@@ -8604,19 +8600,19 @@
         <v>41</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>41</v>
@@ -8624,10 +8620,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8638,7 +8634,7 @@
         <v>39</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>41</v>
@@ -8650,17 +8646,17 @@
         <v>41</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>41</v>
@@ -8709,31 +8705,31 @@
         <v>41</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>41</v>
@@ -8741,10 +8737,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8767,19 +8763,19 @@
         <v>41</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="N57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>41</v>
@@ -8828,7 +8824,7 @@
         <v>41</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
@@ -8840,19 +8836,19 @@
         <v>41</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>41</v>
@@ -8860,10 +8856,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8874,7 +8870,7 @@
         <v>39</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>41</v>
@@ -8886,17 +8882,17 @@
         <v>41</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>41</v>
@@ -8945,31 +8941,31 @@
         <v>41</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>41</v>
@@ -8977,10 +8973,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8991,7 +8987,7 @@
         <v>39</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>41</v>
@@ -9003,17 +8999,17 @@
         <v>41</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>41</v>
@@ -9038,55 +9034,55 @@
         <v>41</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y59" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="Z59" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="Z59" t="s" s="2">
+      <c r="AA59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK59" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AA59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>284</v>
-      </c>
       <c r="AL59" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>41</v>
@@ -9094,10 +9090,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9108,7 +9104,7 @@
         <v>39</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>41</v>
@@ -9120,19 +9116,19 @@
         <v>41</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="N60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>41</v>
@@ -9181,31 +9177,31 @@
         <v>41</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI60" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK60" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="AJ60" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK60" t="s" s="2">
+      <c r="AL60" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>41</v>
@@ -9213,10 +9209,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9227,7 +9223,7 @@
         <v>39</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>41</v>
@@ -9239,13 +9235,13 @@
         <v>41</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9296,25 +9292,25 @@
         <v>41</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>41</v>
@@ -9328,10 +9324,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9354,19 +9350,19 @@
         <v>41</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="N62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>41</v>
@@ -9415,7 +9411,7 @@
         <v>41</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
@@ -9427,13 +9423,13 @@
         <v>41</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>41</v>
@@ -9447,10 +9443,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9461,7 +9457,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>41</v>
@@ -9473,13 +9469,13 @@
         <v>41</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9530,22 +9526,22 @@
         <v>41</v>
       </c>
       <c r="AF63" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK63" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>41</v>
@@ -9562,14 +9558,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9588,16 +9584,16 @@
         <v>41</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="M64" t="s" s="2">
-        <v>145</v>
-      </c>
       <c r="N64" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9647,7 +9643,7 @@
         <v>41</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
@@ -9659,10 +9655,10 @@
         <v>41</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>41</v>
@@ -9679,14 +9675,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9699,25 +9695,25 @@
         <v>41</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="M65" t="s" s="2">
-        <v>436</v>
-      </c>
       <c r="N65" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="O65" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>41</v>
@@ -9766,7 +9762,7 @@
         <v>41</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
@@ -9778,10 +9774,10 @@
         <v>41</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>41</v>
@@ -9798,10 +9794,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9809,10 +9805,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>41</v>
@@ -9824,19 +9820,19 @@
         <v>41</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="N66" t="s" s="2">
+      <c r="O66" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>41</v>
@@ -9861,14 +9857,14 @@
         <v>41</v>
       </c>
       <c r="X66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y66" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="Y66" t="s" s="2">
+      <c r="Z66" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Z66" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AA66" t="s" s="2">
         <v>41</v>
       </c>
@@ -9885,31 +9881,31 @@
         <v>41</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="AL66" t="s" s="2">
+      <c r="AM66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN66" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>41</v>
@@ -9917,10 +9913,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9931,7 +9927,7 @@
         <v>39</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>41</v>
@@ -9943,19 +9939,19 @@
         <v>41</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="N67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>41</v>
@@ -10004,31 +10000,31 @@
         <v>41</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="AL67" t="s" s="2">
+      <c r="AM67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>41</v>
@@ -10036,14 +10032,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10062,16 +10058,16 @@
         <v>41</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="N68" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10121,7 +10117,7 @@
         <v>41</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>39</v>
@@ -10133,19 +10129,19 @@
         <v>41</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK68" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN68" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>41</v>
@@ -10153,10 +10149,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10167,31 +10163,31 @@
         <v>39</v>
       </c>
       <c r="G69" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J69" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K69" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="N69" t="s" s="2">
+      <c r="O69" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>41</v>
@@ -10240,25 +10236,25 @@
         <v>41</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>41</v>
@@ -10272,10 +10268,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10292,25 +10288,25 @@
         <v>41</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="N70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>41</v>
@@ -10359,7 +10355,7 @@
         <v>41</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>39</v>
@@ -10371,13 +10367,13 @@
         <v>41</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>41</v>
@@ -10391,10 +10387,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10405,7 +10401,7 @@
         <v>39</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>41</v>
@@ -10417,13 +10413,13 @@
         <v>41</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10474,22 +10470,22 @@
         <v>41</v>
       </c>
       <c r="AF71" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK71" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>41</v>
@@ -10506,14 +10502,14 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10532,16 +10528,16 @@
         <v>41</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="M72" t="s" s="2">
-        <v>145</v>
-      </c>
       <c r="N72" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10591,7 +10587,7 @@
         <v>41</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>39</v>
@@ -10603,10 +10599,10 @@
         <v>41</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>41</v>
@@ -10623,14 +10619,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10643,25 +10639,25 @@
         <v>41</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="M73" t="s" s="2">
-        <v>436</v>
-      </c>
       <c r="N73" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="O73" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>41</v>
@@ -10710,7 +10706,7 @@
         <v>41</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>39</v>
@@ -10722,10 +10718,10 @@
         <v>41</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>41</v>
@@ -10742,10 +10738,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10753,31 +10749,31 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J74" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G74" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K74" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10827,31 +10823,31 @@
         <v>41</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>41</v>
@@ -10859,10 +10855,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10870,31 +10866,31 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J75" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G75" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K75" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10920,49 +10916,49 @@
         <v>41</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y75" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="Z75" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="Z75" t="s" s="2">
+      <c r="AA75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK75" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="AA75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>541</v>
-      </c>
       <c r="AL75" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>41</v>
